--- a/mt_optoIDR_figures/S5/SourceData_S5.xlsx
+++ b/mt_optoIDR_figures/S5/SourceData_S5.xlsx
@@ -1,38 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/asd5707_psu_edu/Documents/Research/paper#1/Source_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABDACC104807D9DA646A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCA6320F-02B2-4774-8C11-7D391BDB28A5}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_F25DC773A252ABDACC104807D9DA646A5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8077C0E-F3A7-493F-85AF-DE3850463D30}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S5 a, b, c" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'S5 a, b, c'!$M$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'S5 a, b, c'!$M$5:$M$28</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'S5 a, b, c'!$N$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'S5 a, b, c'!$N$5:$N$28</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'S5 a, b, c'!$O$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'S5 a, b, c'!$O$5:$O$28</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'S5 a, b, c'!$P$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'S5 a, b, c'!$P$5:$P$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'S5 a, b, c'!$N$4</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'S5 a, b, c'!$N$5:$N$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'S5 a, b, c'!$O$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'S5 a, b, c'!$O$5:$O$28</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'S5 a, b, c'!$P$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'S5 a, b, c'!$P$5:$P$28</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'S5 a, b, c'!$M$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'S5 a, b, c'!$M$5:$M$28</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>S5 a, b, c</t>
   </si>
@@ -212,6 +194,18 @@
       </rPr>
       <t>m</t>
     </r>
+  </si>
+  <si>
+    <t>S5 e</t>
+  </si>
+  <si>
+    <t>average network int</t>
+  </si>
+  <si>
+    <t>Drp1K38A</t>
+  </si>
+  <si>
+    <t>WT</t>
   </si>
 </sst>
 </file>
@@ -394,15 +388,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -411,7 +403,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,6 +434,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,6 +451,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,30 +720,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P28"/>
+  <dimension ref="B2:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="37.6640625" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.7109375" customWidth="1"/>
+    <col min="11" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="K2" s="24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N2" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -753,539 +757,670 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
-      <c r="M3" s="28" t="s">
+      <c r="K3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="M4" s="8" t="s">
+      <c r="F4" s="6"/>
+      <c r="K4" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="M5" s="5">
+      <c r="F5" s="6"/>
+      <c r="K5" s="5">
+        <v>2890.9488437386499</v>
+      </c>
+      <c r="L5" s="6">
+        <v>2631.3109720350899</v>
+      </c>
+      <c r="N5" s="5">
         <v>0.38179808980331098</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5">
         <v>0.22450483392873499</v>
       </c>
-      <c r="O5" s="6">
+      <c r="P5">
         <v>0.26721418721397999</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="6">
         <v>0.186774272421525</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="M6" s="5">
+      <c r="F6" s="6"/>
+      <c r="K6" s="5">
+        <v>922.106957556373</v>
+      </c>
+      <c r="L6" s="6">
+        <v>6248.0008017277796</v>
+      </c>
+      <c r="N6" s="5">
         <v>0.45520504774522602</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6">
         <v>0.27307207078008799</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6">
         <v>0.26802185999947298</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="6">
         <v>0.190232828832616</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="M7" s="5">
+      <c r="F7" s="6"/>
+      <c r="K7" s="5">
+        <v>1558.3160878087699</v>
+      </c>
+      <c r="L7" s="6">
+        <v>4603.8966992184496</v>
+      </c>
+      <c r="N7" s="5">
         <v>0.38061729748353401</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7">
         <v>0.323358322148177</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7">
         <v>0.24693193402163899</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="6">
         <v>0.18704108283059601</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="M8" s="5">
+      <c r="F8" s="6"/>
+      <c r="K8" s="5">
+        <v>2367.9415940140302</v>
+      </c>
+      <c r="L8" s="6">
+        <v>5236.3693400820903</v>
+      </c>
+      <c r="N8" s="5">
         <v>0.37418736809013398</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8">
         <v>0.24557261997873001</v>
       </c>
-      <c r="O8" s="6">
+      <c r="P8">
         <v>0.27176474856697402</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="6">
         <v>0.19370882073988499</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="M9" s="5">
+      <c r="F9" s="6"/>
+      <c r="K9" s="5">
+        <v>1896.8173136901801</v>
+      </c>
+      <c r="L9" s="6">
+        <v>8885.0702972789004</v>
+      </c>
+      <c r="N9" s="5">
         <v>0.39239519586268201</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9">
         <v>0.26991989555696599</v>
       </c>
-      <c r="O9" s="6">
+      <c r="P9">
         <v>0.28203627704649498</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="6">
         <v>0.19673029260745201</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="5">
+      <c r="K10" s="5">
+        <v>4113.6119644709797</v>
+      </c>
+      <c r="L10" s="6">
+        <v>8253.6535319760806</v>
+      </c>
+      <c r="N10" s="5">
         <v>0.43976872441175802</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10">
         <v>0.27198624622752599</v>
       </c>
-      <c r="O10" s="6">
+      <c r="P10">
         <v>0.23707883483011499</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="6">
         <v>0.18599149080977201</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="9">
         <v>639</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>0</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>4000</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="5">
+      <c r="K11" s="5">
+        <v>2033.5113174923499</v>
+      </c>
+      <c r="L11" s="6">
+        <v>7414.5430905348003</v>
+      </c>
+      <c r="N11" s="5">
         <v>0.33430092286499102</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11">
         <v>0.256708741560564</v>
       </c>
-      <c r="O11" s="6">
+      <c r="P11">
         <v>0.275317088388153</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="6">
         <v>0.18081951693862999</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
         <v>561</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>0</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>5000</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="5">
+      <c r="K12" s="5">
+        <v>2597.6270249157401</v>
+      </c>
+      <c r="L12" s="6">
+        <v>6027.37073070108</v>
+      </c>
+      <c r="N12" s="5">
         <v>0.33543589849004901</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12">
         <v>0.25368611765530102</v>
       </c>
-      <c r="O12" s="6">
+      <c r="P12">
         <v>0.24075256068126599</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="6">
         <v>0.191502753774455</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="9">
         <v>488</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>0</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>11000</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="5">
+      <c r="K13" s="5">
+        <v>1491.8126953776</v>
+      </c>
+      <c r="L13" s="6">
+        <v>6808.8105276005999</v>
+      </c>
+      <c r="N13" s="5">
         <v>0.31985775865520799</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13">
         <v>0.22282954674924499</v>
       </c>
-      <c r="O13" s="6">
+      <c r="P13">
         <v>0.30562306281254398</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="6">
         <v>0.186914259804947</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="M14" s="5">
+      <c r="F14" s="6"/>
+      <c r="K14" s="5">
+        <v>4730.6602764419004</v>
+      </c>
+      <c r="L14" s="6">
+        <v>7138.4228496383002</v>
+      </c>
+      <c r="N14" s="5">
         <v>0.29953534323211101</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14">
         <v>0.239313776550372</v>
       </c>
-      <c r="O14" s="6">
+      <c r="P14">
         <v>0.274939590816557</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="6">
         <v>0.17820471355558901</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="M15" s="5">
+      <c r="F15" s="6"/>
+      <c r="K15" s="5">
+        <v>3011.1407612328799</v>
+      </c>
+      <c r="L15" s="6">
+        <v>5433.9896890173204</v>
+      </c>
+      <c r="N15" s="5">
         <v>0.44472124186253698</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15">
         <v>0.34721673994387497</v>
       </c>
-      <c r="O15" s="6">
+      <c r="P15">
         <v>0.26727733720025298</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="6">
         <v>0.18771012160304201</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="M16" s="5">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
+      <c r="K16" s="5">
+        <v>1596.4073051932701</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1131.8493815833101</v>
+      </c>
+      <c r="N16" s="5">
         <v>0.33225590067734301</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16">
         <v>0.227417702480085</v>
       </c>
-      <c r="O16" s="6">
+      <c r="P16">
         <v>0.33484806894484698</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="6">
         <v>0.188340406929077</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M17" s="5">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K17" s="5">
+        <v>3611.4548538315598</v>
+      </c>
+      <c r="L17" s="6">
+        <v>9378.2948073031694</v>
+      </c>
+      <c r="N17" s="5">
         <v>0.26588189005909502</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17">
         <v>0.215798418061808</v>
       </c>
-      <c r="O17" s="6">
+      <c r="P17">
         <v>0.25417946989596202</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="6">
         <v>0.194560715862647</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M18" s="5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K18" s="5">
+        <v>1772.35100632746</v>
+      </c>
+      <c r="L18" s="6">
+        <v>7870.4488558001003</v>
+      </c>
+      <c r="N18" s="5">
         <v>0.27923020466536802</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18">
         <v>0.19800991942781199</v>
       </c>
-      <c r="O18" s="6">
+      <c r="P18">
         <v>0.28652728253189602</v>
       </c>
-      <c r="P18" s="7">
+      <c r="Q18" s="6">
         <v>0.19570106679664701</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M19" s="5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K19" s="5">
+        <v>3709.2813878112102</v>
+      </c>
+      <c r="L19" s="6">
+        <v>4939.1453471777104</v>
+      </c>
+      <c r="N19" s="5">
         <v>0.504784562013878</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19">
         <v>0.34580440765825998</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="5">
+      <c r="K20" s="5"/>
+      <c r="L20" s="6">
+        <v>6308.5261026948301</v>
+      </c>
+      <c r="N20" s="5">
         <v>0.28770301666819698</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20">
         <v>0.19906777907350101</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="18" t="s">
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="5">
+      <c r="K21" s="5"/>
+      <c r="L21" s="6">
+        <v>7724.3285156697502</v>
+      </c>
+      <c r="N21" s="5">
         <v>0.32681723746707603</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21">
         <v>0.29033495198792503</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="2:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="5">
+      <c r="K22" s="5"/>
+      <c r="L22" s="6">
+        <v>3891.6961507808001</v>
+      </c>
+      <c r="N22" s="5">
         <v>0.29011607010142298</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22">
         <v>0.22242196726647401</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="7"/>
-    </row>
-    <row r="23" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="5">
+      <c r="K23" s="5"/>
+      <c r="L23" s="6">
+        <v>2030.9018054410601</v>
+      </c>
+      <c r="N23" s="5">
         <v>0.322783121036959</v>
       </c>
-      <c r="N23" s="6">
+      <c r="O23">
         <v>0.220852551708975</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="21" t="s">
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="15">
         <v>488</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="5">
+      <c r="K24" s="5"/>
+      <c r="L24" s="6">
+        <v>1815.6194260605</v>
+      </c>
+      <c r="N24" s="5">
         <v>0.35523181999369202</v>
       </c>
-      <c r="N24" s="6">
+      <c r="O24">
         <v>0.30026267151139302</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="7"/>
-    </row>
-    <row r="25" spans="2:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="22" t="s">
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="21">
         <v>639</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="5">
+      <c r="K25" s="5"/>
+      <c r="L25" s="6">
+        <v>1435.3435666294699</v>
+      </c>
+      <c r="N25" s="5">
         <v>0.29922717309136199</v>
       </c>
-      <c r="N25" s="6">
+      <c r="O25">
         <v>0.234938687680223</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="7"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M26" s="5">
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K26" s="5"/>
+      <c r="L26" s="6">
+        <v>2203.46113536148</v>
+      </c>
+      <c r="N26" s="5">
         <v>0.31814820968757601</v>
       </c>
-      <c r="N26" s="6">
+      <c r="O26">
         <v>0.26570537902223001</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="7"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M27" s="5">
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K27" s="5"/>
+      <c r="L27" s="6">
+        <v>1770.1150312561099</v>
+      </c>
+      <c r="N27" s="5">
         <v>0.39991851821445301</v>
       </c>
-      <c r="N27" s="6">
+      <c r="O27">
         <v>0.25562990043998801</v>
       </c>
-      <c r="O27" s="6"/>
-      <c r="P27" s="7"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="M28" s="29">
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K28" s="5"/>
+      <c r="L28" s="6">
+        <v>7210.8481615117598</v>
+      </c>
+      <c r="N28" s="27">
         <v>0.312097600520996</v>
       </c>
-      <c r="N28" s="15">
+      <c r="O28" s="13">
         <v>0.212879937440412</v>
       </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="16"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K29" s="5"/>
+      <c r="L29" s="6">
+        <v>7559.7016240072699</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K30" s="5"/>
+      <c r="L30" s="6">
+        <v>6227.1409567525398</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K31" s="5"/>
+      <c r="L31" s="6">
+        <v>3526.1640412264401</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K32" s="27"/>
+      <c r="L32" s="14">
+        <v>2236.1605551959901</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>